--- a/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>99.57509992947857</v>
+        <v>99.57642877345305</v>
       </c>
     </row>
     <row r="3">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>98.1842752447689</v>
+        <v>98.18558552798871</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>13.04347826086956</v>
+      <c r="I2" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>83.33333333333334</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>14.28571428571428</v>
+      <c r="I3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>0</v>
@@ -846,32 +846,34 @@
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0</v>
@@ -880,49 +882,6 @@
         <v>100</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -937,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,16 +936,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -994,51 +953,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1249,10 +1191,10 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>3</v>
@@ -1261,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>13.04347826086956</v>
+      <c r="I4" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0</v>
@@ -1335,7 +1277,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.3808164166666667</v>
+        <v>0.3791666033333334</v>
       </c>
     </row>
     <row r="3">
@@ -1346,7 +1288,7 @@
         </is>
       </c>
       <c r="C3" s="10" t="n">
-        <v>0.004203333333333334</v>
+        <v>0.005853146666666665</v>
       </c>
     </row>
     <row r="4">
@@ -1394,7 +1336,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1347,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
     </row>
     <row r="9">
@@ -1562,10 +1504,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.3808164166666667</v>
+        <v>0.3791666033333334</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>0.004203333333333334</v>
+        <v>0.005853146666666665</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -1577,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
@@ -1599,10 +1541,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.3808164166666667</v>
+        <v>0.3791666033333334</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0.004203333333333334</v>
+        <v>0.005853146666666665</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -1614,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
@@ -1682,7 +1624,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
     </row>
     <row r="4">
@@ -1693,7 +1635,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
     </row>
     <row r="5">

--- a/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,8 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -52,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -126,27 +128,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -196,11 +177,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +951,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -990,6 +973,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>90.90909090909091</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1244,161 +1405,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.3791666033333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>0.005853146666666665</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.38501975</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>98.47978014980617</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.520219850193832</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,19 +1426,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="13" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="13" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1481,11 +1494,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1506,7 +1515,7 @@
       <c r="B4" s="4" t="n">
         <v>0.3791666033333334</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.005853146666666665</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -1531,43 +1540,6 @@
         <v>100</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.3791666033333334</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>0.005853146666666665</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.38501975</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>98.47978014980617</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.520219850193832</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1586,7 +1558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,141 +1567,355 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>99.57642877345305</v>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.3788741533333333</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.003067326666666666</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.38194148</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>99.19691187595893</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.8030881240410616</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>0.00029245</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.00278582</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.00307827</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>9.500466170933674</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>90.49953382906634</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Area 48,58,88 Total</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.3791666033333334</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0.005853146666666665</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.38501975</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>98.47978014980617</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>1.520219850193832</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>98.18558552798871</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>48,58,88</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>99.57643907470766</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>98.47978014980617</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.520219850193832</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>98.18559568535957</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_48,58,88_summary.xlsx
@@ -978,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,6 +1142,52 @@
         <v>100</v>
       </c>
       <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1775,7 +1821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1793,77 +1839,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1881,8 +1915,6 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -1891,31 +1923,25 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>99.57643907470766</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>98.47978014980617</v>
-      </c>
-      <c r="D4" s="4" t="n">
         <v>1.520219850193832</v>
       </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>98.18559568535957</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
